--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -20,6 +20,7 @@
   <fonts count="4">
     <font>
       <name val="Noto Sans CJK KR"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -66,7 +67,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -446,348 +450,348 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>midterm</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>final</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>homework</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>attendance</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="1">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="2">
+      <c r="A2" s="3" t="n">
         <v>20202020</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Dongduk</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>39.09</v>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="1">
-      <c r="A3" s="2" t="n">
+    <row r="3" ht="12.75" customHeight="1" s="2">
+      <c r="A3" s="3" t="n">
         <v>20201000</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>53.02</v>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="1">
-      <c r="A4" s="2" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="2">
+      <c r="A4" s="3" t="n">
         <v>20201001</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>mmm</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>34.74</v>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="1">
-      <c r="A5" s="2" t="n">
+    <row r="5" ht="12.75" customHeight="1" s="2">
+      <c r="A5" s="3" t="n">
         <v>20201002</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>lll</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>82.38</v>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.8" customHeight="1" s="1">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="12.75" customHeight="1" s="2">
+      <c r="A6" s="3" t="n">
         <v>20201003</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>ooo</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.8" customHeight="1" s="1">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="12.75" customHeight="1" s="2">
+      <c r="A7" s="3" t="n">
         <v>20201004</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>ppp</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="n">
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <v>33.02</v>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" s="1">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="12.75" customHeight="1" s="2">
+      <c r="A8" s="3" t="n">
         <v>20201005</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>uuu</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>58.51000000000001</v>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" s="1">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="12.75" customHeight="1" s="2">
+      <c r="A9" s="3" t="n">
         <v>20201006</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>iii</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <v>54.64</v>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" s="1">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="12.75" customHeight="1" s="2">
+      <c r="A10" s="3" t="n">
         <v>20201007</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>eee</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="n">
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <v>52.35999999999999</v>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" s="1">
-      <c r="A11" s="2" t="n">
+    <row r="11" ht="12.75" customHeight="1" s="2">
+      <c r="A11" s="3" t="n">
         <v>20201008</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>yyy</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <v>63.96000000000001</v>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>A+</t>
         </is>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -450,10 +450,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -484,6 +484,16 @@
       <c r="F1" s="3" t="inlineStr">
         <is>
           <t>attendance</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>grade</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Noto Sans CJK KR"/>
       <charset val="1"/>
@@ -38,6 +38,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Noto Sans CJK KR"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,15 +74,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -447,503 +466,2693 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L7" activeCellId="0" sqref="L7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I73" activeCellId="0" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>midterm</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>final</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>homework</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>attendance</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>grade</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="6" t="n">
+        <v>20140001</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="6" t="n">
+        <v>20140002</v>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="A4" s="6" t="n">
+        <v>20140003</v>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Lily</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>20202020</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Dongduk</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="M4" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="N4" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="O4" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="n">
+      <c r="P4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="n">
         <v>40.39</v>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="R4" s="5" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="2">
-      <c r="A3" s="3" t="n">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="A5" s="6" t="n">
+        <v>20140004</v>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>85.38</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="n">
         <v>20201000</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="L5" s="5" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="M5" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="N5" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="O5" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="n">
+      <c r="P5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="n">
         <v>53.02</v>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="R5" s="5" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="2">
-      <c r="A4" s="3" t="n">
+    <row r="6" ht="12.75" customHeight="1" s="4">
+      <c r="A6" s="6" t="n">
+        <v>20140005</v>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>Amelia</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="n">
         <v>20201001</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>mmm</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="M6" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="N6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="O6" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5" t="n">
         <v>34.74</v>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="R6" s="5" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="2">
-      <c r="A5" s="3" t="n">
+    <row r="7" ht="12.75" customHeight="1" s="4">
+      <c r="A7" s="6" t="n">
+        <v>20150001</v>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>Isla</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="n">
         <v>20201002</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>lll</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="M7" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="N7" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="O7" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="n">
+      <c r="P7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5" t="n">
         <v>82.38</v>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="2">
-      <c r="A6" s="3" t="n">
+    <row r="8" ht="12.75" customHeight="1" s="4">
+      <c r="A8" s="6" t="n">
+        <v>20150003</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Isabella</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>62.01000000000001</v>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="n">
         <v>20201003</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="L8" s="5" t="inlineStr">
         <is>
           <t>ooo</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="M8" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="N8" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="O8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="n">
+      <c r="P8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="R8" s="5" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1" s="2">
-      <c r="A7" s="3" t="n">
+    <row r="9" ht="12.75" customHeight="1" s="4">
+      <c r="A9" s="6" t="n">
+        <v>20150005</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Ava</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>57.64</v>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n">
         <v>20201004</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="L9" s="5" t="inlineStr">
         <is>
           <t>ppp</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="M9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="N9" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="O9" s="5" t="n">
         <v>58</v>
       </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
+      <c r="P9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5" t="n">
         <v>33.02</v>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="R9" s="5" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" s="2">
-      <c r="A8" s="3" t="n">
+    <row r="10" ht="12.75" customHeight="1" s="4">
+      <c r="A10" s="6" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>55.35999999999999</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="n">
         <v>20201005</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>uuu</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="M10" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="N10" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="O10" s="5" t="n">
         <v>54</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>58.51000000000001</v>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="P10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1" s="2">
-      <c r="A9" s="3" t="n">
+    <row r="11" ht="12.75" customHeight="1" s="4">
+      <c r="A11" s="6" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>67.46000000000001</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="n">
         <v>20201006</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>iii</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="M11" s="5" t="n">
         <v>43</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="N11" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="O11" s="5" t="n">
         <v>56</v>
       </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="n">
+      <c r="P11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="n">
         <v>54.64</v>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="2">
-      <c r="A10" s="3" t="n">
+    <row r="12" ht="12.75" customHeight="1" s="4">
+      <c r="A12" s="6" t="n">
+        <v>20150011</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>Isabelle</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="n">
         <v>20201007</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="L12" s="5" t="inlineStr">
         <is>
           <t>eee</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="M12" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="N12" s="5" t="n">
         <v>92</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="O12" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>52.35999999999999</v>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="P12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>52.36</v>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
         <is>
           <t>B0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1" s="2">
-      <c r="A11" s="3" t="n">
+    <row r="13" ht="12.75" customHeight="1" s="4">
+      <c r="A13" s="6" t="n">
+        <v>20150013</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Ella</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>77.16</v>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="n">
         <v>20201008</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="L13" s="5" t="inlineStr">
         <is>
           <t>yyy</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="M13" s="5" t="n">
         <v>91</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="N13" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="O13" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>63.96000000000001</v>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>63.96</v>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
         <is>
           <t>A0</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1" s="2">
-      <c r="A12" s="3" t="n">
+    <row r="14" ht="12.75" customHeight="1" s="4">
+      <c r="A14" s="6" t="n">
+        <v>20150015</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Amie</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="n">
         <v>20202020</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Dongduk</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="M14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="N14" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="O14" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5" t="n">
         <v>34.09</v>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="R14" s="5" t="inlineStr">
         <is>
           <t>C+</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1" s="2">
-      <c r="A13" s="3" t="n">
+    <row r="15" ht="12.75" customHeight="1" s="4">
+      <c r="A15" s="6" t="n">
+        <v>20150017</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Mia</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>66.44999999999999</v>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="n">
         <v>20201000</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="L15" s="5" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="M15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="N15" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="O15" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="n">
+      <c r="P15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5" t="n">
         <v>29.02</v>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="R15" s="5" t="inlineStr">
         <is>
           <t>C0</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1" s="2">
-      <c r="A14" s="3" t="n">
+    <row r="16" ht="12.75" customHeight="1" s="4">
+      <c r="A16" s="6" t="n">
+        <v>20150019</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Evie</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>73.55</v>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="n">
         <v>20201001</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>mmm</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="M16" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="N16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="O16" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>52.73999999999999</v>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="P16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>B+</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" s="2">
-      <c r="A15" s="3" t="n">
+    <row r="17" ht="15" customHeight="1" s="4">
+      <c r="A17" s="6" t="n">
+        <v>20150021</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>60.27</v>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="n">
         <v>20201002</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="L17" s="5" t="inlineStr">
         <is>
           <t>lll</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="M17" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="N17" s="5" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="O17" s="5" t="n">
         <v>72</v>
       </c>
-      <c r="F15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="n">
+      <c r="P17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
         <v>76.38</v>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="R17" s="5" t="inlineStr">
         <is>
           <t>A+</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1" s="2">
-      <c r="A16" s="3" t="n">
+    <row r="18" ht="15" customHeight="1" s="4">
+      <c r="A18" s="6" t="n">
+        <v>20150023</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="n">
         <v>20201003</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="L18" s="5" t="inlineStr">
         <is>
           <t>ooo</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="M18" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="N18" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="O18" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="n">
+      <c r="P18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="4">
+      <c r="A19" s="6" t="n">
+        <v>20150025</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>Grace</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" s="4">
+      <c r="A20" s="6" t="n">
+        <v>20150027</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>Emma+</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>77.56999999999999</v>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" s="4">
+      <c r="A21" s="6" t="n">
+        <v>20150029</v>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>58.53999999999999</v>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" s="4">
+      <c r="A22" s="6" t="n">
+        <v>20161001</v>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>Ruby</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>57.89</v>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="4">
+      <c r="A23" s="6" t="n">
+        <v>20161002</v>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>49.63</v>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="4">
+      <c r="A24" s="6" t="n">
+        <v>20161003</v>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>Freya</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>38.09999999999999</v>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" s="4">
+      <c r="A25" s="6" t="n">
+        <v>20161004</v>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" s="4">
+      <c r="A26" s="6" t="n">
+        <v>20161005</v>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Scarlett</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>73.89999999999999</v>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" s="4">
+      <c r="A27" s="6" t="n">
+        <v>20161006</v>
+      </c>
+      <c r="B27" s="7" t="inlineStr">
+        <is>
+          <t>Lucy</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" s="4">
+      <c r="A28" s="6" t="n">
+        <v>20161007</v>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Abigail</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>37.76000000000001</v>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" s="4">
+      <c r="A29" s="6" t="n">
+        <v>20161008</v>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>Phoebe</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" s="4">
+      <c r="A30" s="6" t="n">
+        <v>20161009</v>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>Nur</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="H30" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" s="4">
+      <c r="A31" s="6" t="n">
+        <v>20161010</v>
+      </c>
+      <c r="B31" s="7" t="inlineStr">
+        <is>
+          <t>Daisy</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>83.21000000000001</v>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" s="4">
+      <c r="A32" s="6" t="n">
+        <v>20161011</v>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>Elizabeth</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>60.95</v>
+      </c>
+      <c r="H32" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" s="4">
+      <c r="A33" s="6" t="n">
+        <v>20161012</v>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>31.66</v>
+      </c>
+      <c r="H33" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" s="4">
+      <c r="A34" s="6" t="n">
+        <v>20161013</v>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>Florence</t>
+        </is>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>68.68000000000001</v>
+      </c>
+      <c r="H34" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" s="4">
+      <c r="A35" s="6" t="n">
+        <v>20161014</v>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>Ellie</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>42.71</v>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" s="4">
+      <c r="A36" s="6" t="n">
+        <v>20161015</v>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="H36" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" s="4">
+      <c r="A37" s="6" t="n">
+        <v>20161016</v>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>Erin</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" s="4">
+      <c r="A38" s="6" t="n">
+        <v>20161017</v>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>Sienna</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="4">
+      <c r="A39" s="6" t="n">
+        <v>20161018</v>
+      </c>
+      <c r="B39" s="7" t="inlineStr">
+        <is>
+          <t>Elsie</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="4">
+      <c r="A40" s="6" t="n">
+        <v>20161019</v>
+      </c>
+      <c r="B40" s="7" t="inlineStr">
+        <is>
+          <t>Matilda</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>69.85000000000001</v>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="4">
+      <c r="A41" s="6" t="n">
+        <v>20161020</v>
+      </c>
+      <c r="B41" s="7" t="inlineStr">
+        <is>
+          <t>Evelyn</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" s="4">
+      <c r="A42" s="6" t="n">
+        <v>20161021</v>
+      </c>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" s="4">
+      <c r="A43" s="6" t="n">
+        <v>20161022</v>
+      </c>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>Lola</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>70.52000000000001</v>
+      </c>
+      <c r="H43" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" s="4">
+      <c r="A44" s="6" t="n">
+        <v>20161023</v>
+      </c>
+      <c r="B44" s="7" t="inlineStr">
+        <is>
+          <t>Bella</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="H44" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" s="4">
+      <c r="A45" s="6" t="n">
+        <v>20161024</v>
+      </c>
+      <c r="B45" s="7" t="inlineStr">
+        <is>
+          <t>Rosie</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>59.28</v>
+      </c>
+      <c r="H45" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" s="4">
+      <c r="A46" s="6" t="n">
+        <v>20161025</v>
+      </c>
+      <c r="B46" s="7" t="inlineStr">
+        <is>
+          <t>Holly</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>20.07</v>
+      </c>
+      <c r="H46" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" s="4">
+      <c r="A47" s="6" t="n">
+        <v>20161026</v>
+      </c>
+      <c r="B47" s="7" t="inlineStr">
+        <is>
+          <t>Millie</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="H47" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" s="4">
+      <c r="A48" s="6" t="n">
+        <v>20161027</v>
+      </c>
+      <c r="B48" s="7" t="inlineStr">
+        <is>
+          <t>Annabelle</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="H48" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" s="4">
+      <c r="A49" s="6" t="n">
+        <v>20161028</v>
+      </c>
+      <c r="B49" s="7" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" s="4">
+      <c r="A50" s="6" t="n">
+        <v>20161029</v>
+      </c>
+      <c r="B50" s="7" t="inlineStr">
+        <is>
+          <t>Imogen</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="H50" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" s="4">
+      <c r="A51" s="6" t="n">
+        <v>20161030</v>
+      </c>
+      <c r="B51" s="7" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>53.12</v>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" s="4">
+      <c r="A52" s="6" t="n">
+        <v>20161031</v>
+      </c>
+      <c r="B52" s="7" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>38.98</v>
+      </c>
+      <c r="H52" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="4">
+      <c r="A53" s="6" t="n">
+        <v>20161032</v>
+      </c>
+      <c r="B53" s="7" t="inlineStr">
+        <is>
+          <t>Ivy</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>78.33</v>
+      </c>
+      <c r="H53" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="4">
+      <c r="A54" s="6" t="n">
+        <v>20161033</v>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>Emilia</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>73.54000000000001</v>
+      </c>
+      <c r="H54" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" s="4">
+      <c r="A55" s="6" t="n">
+        <v>20161034</v>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="F55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>32.56</v>
+      </c>
+      <c r="H55" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" s="4">
+      <c r="A56" s="6" t="n">
+        <v>20161035</v>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>Eliza</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="H56" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" s="4">
+      <c r="A57" s="6" t="n">
+        <v>20161036</v>
+      </c>
+      <c r="B57" s="7" t="inlineStr">
+        <is>
+          <t>Layla</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>57.24</v>
+      </c>
+      <c r="H57" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" s="4">
+      <c r="A58" s="6" t="n">
+        <v>20161037</v>
+      </c>
+      <c r="B58" s="7" t="inlineStr">
+        <is>
+          <t>Mila</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>66.64</v>
+      </c>
+      <c r="H58" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" s="4">
+      <c r="A59" s="6" t="n">
+        <v>20161038</v>
+      </c>
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="H59" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="4">
+      <c r="A60" s="6" t="n">
+        <v>20161039</v>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>59.58999999999999</v>
+      </c>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="4">
+      <c r="A61" s="6" t="n">
+        <v>20161040</v>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>Amelie</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="F61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="H61" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" s="4">
+      <c r="A62" s="6" t="n">
+        <v>20161041</v>
+      </c>
+      <c r="B62" s="7" t="inlineStr">
+        <is>
+          <t>Maisie</t>
+        </is>
+      </c>
+      <c r="C62" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="H62" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" s="4">
+      <c r="A63" s="6" t="n">
+        <v>20161042</v>
+      </c>
+      <c r="B63" s="7" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="H63" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="4">
+      <c r="A64" s="6" t="n">
+        <v>20161043</v>
+      </c>
+      <c r="B64" s="7" t="inlineStr">
+        <is>
+          <t>Zara</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E64" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>38.43</v>
+      </c>
+      <c r="H64" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" s="4">
+      <c r="A65" s="6" t="n">
+        <v>20161044</v>
+      </c>
+      <c r="B65" s="7" t="inlineStr">
+        <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="H65" s="5" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" s="4">
+      <c r="A66" s="6" t="n">
+        <v>20161045</v>
+      </c>
+      <c r="B66" s="7" t="inlineStr">
+        <is>
+          <t>Megan</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" s="4">
+      <c r="A67" s="6" t="n">
+        <v>20161046</v>
+      </c>
+      <c r="B67" s="7" t="inlineStr">
+        <is>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>42.18000000000001</v>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" s="4">
+      <c r="A68" s="6" t="n">
+        <v>20161047</v>
+      </c>
+      <c r="B68" s="7" t="inlineStr">
+        <is>
+          <t>Harriet</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" s="4">
+      <c r="A69" s="6" t="n">
+        <v>20161048</v>
+      </c>
+      <c r="B69" s="7" t="inlineStr">
+        <is>
+          <t>Violet</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="H69" s="5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" s="4">
+      <c r="A70" s="6" t="n">
+        <v>20161049</v>
+      </c>
+      <c r="B70" s="7" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>79.86</v>
+      </c>
+      <c r="H70" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" s="4">
+      <c r="A71" s="6" t="n">
+        <v>20161050</v>
+      </c>
+      <c r="B71" s="7" t="inlineStr">
+        <is>
+          <t>Gracie</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="H71" s="5" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" s="4">
+      <c r="A72" s="6" t="n">
+        <v>20161051</v>
+      </c>
+      <c r="B72" s="7" t="inlineStr">
+        <is>
+          <t>Leah</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>81.02</v>
+      </c>
+      <c r="H72" s="5" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" s="4">
+      <c r="A73" s="6" t="n">
+        <v>20161052</v>
+      </c>
+      <c r="B73" s="7" t="inlineStr">
+        <is>
+          <t>Aria</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>37.04</v>
+      </c>
+      <c r="H73" s="5" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" s="4">
+      <c r="A74" s="6" t="n">
+        <v>20161053</v>
+      </c>
+      <c r="B74" s="7" t="inlineStr">
+        <is>
+          <t>Thea</t>
+        </is>
+      </c>
+      <c r="C74" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H74" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" s="4">
+      <c r="A75" s="6" t="n">
+        <v>20161054</v>
+      </c>
+      <c r="B75" s="7" t="inlineStr">
+        <is>
+          <t>Lara</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="H75" s="5" t="inlineStr">
+        <is>
+          <t>B0</t>
         </is>
       </c>
     </row>
